--- a/config_aomi_12.28/game_module_config.xlsx
+++ b/config_aomi_12.28/game_module_config.xlsx
@@ -4103,7 +4103,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>aact_ty_sjb_style/act_035_dlphb</t>
+    <t>act_ty_sjb_style/act_035_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4796,7 +4796,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
+      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_aomi_12.28/game_module_config.xlsx
+++ b/config_aomi_12.28/game_module_config.xlsx
@@ -4793,10 +4793,10 @@
   <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13416,13 +13416,13 @@
         <v>984</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15.75">
